--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255736.481338854</v>
+        <v>2364378.642641668</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9455422.020753244</v>
+        <v>9460915.66674166</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>292.054552604948</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>169.8512513837146</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>91.64702538008645</v>
+        <v>27.15712517063431</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>242.0989929135792</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>146.9246168289004</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.1644759747433</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>33.04426825583553</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>260.8767548402204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>69.72224521031512</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>161.8709972820482</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>1.593636916913879</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.10799870228442</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>65.67353929277157</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>138.7157037776614</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>49.34762173749063</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>78.89395497654195</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.24923305751697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.8549711274588</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.7593194687118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.458642397732228</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6324680438225141</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2998,25 +3000,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>151.5133592021556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>125.5687591261415</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>95.81917536083792</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>97.24762927924141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634813</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>37.17792077063414</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.97427419833814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>144.7193406055811</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.894479532451</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="C2" t="n">
-        <v>1859.931962592039</v>
+        <v>789.5005799142323</v>
       </c>
       <c r="D2" t="n">
-        <v>1501.666263985288</v>
+        <v>431.2348813074818</v>
       </c>
       <c r="E2" t="n">
-        <v>1115.878011387044</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F2" t="n">
-        <v>704.8921065974366</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>289.1873563217255</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4364,16 +4366,16 @@
         <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.894479532451</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="3">
@@ -4404,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844859</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159576</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751776</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472123</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>620.8411572468201</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1441.289960680901</v>
+        <v>1609.0146805082</v>
       </c>
       <c r="T4" t="n">
-        <v>1218.311479875637</v>
+        <v>1609.0146805082</v>
       </c>
       <c r="U4" t="n">
-        <v>929.1931423794746</v>
+        <v>1319.896343012038</v>
       </c>
       <c r="V4" t="n">
-        <v>674.5086541735877</v>
+        <v>1319.896343012038</v>
       </c>
       <c r="W4" t="n">
-        <v>385.0914841366271</v>
+        <v>1030.479172975077</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386098</v>
+        <v>802.4896220770598</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>802.4896220770598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1263.725694231566</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="C5" t="n">
-        <v>1263.725694231566</v>
+        <v>1528.869075248468</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>1170.603376641717</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>784.8151240434729</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>777.8696232942694</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>362.1648730185583</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2413.93062453258</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2413.93062453258</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2413.93062453258</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2413.93062453258</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>2040.4648662715</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="Y5" t="n">
-        <v>1650.325534295688</v>
+        <v>1897.831592188879</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.7469765594642</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W7" t="n">
-        <v>1082.549477544053</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.549477544053</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>1082.549477544053</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559525</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>808.4114230577909</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1925.684813828984</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1925.684813828984</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.581946954627</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.581946954627</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.164776917667</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>990.0598878880306</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,19 +5120,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>372.2697417015818</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2380.626175203724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2380.626175203724</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2091.550948547922</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342035</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="14">
@@ -5312,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5361,10 +5363,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2239.800507329975</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2020.199042352916</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1731.123815697113</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1476.439327491226</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="X16" t="n">
-        <v>1398.968683817745</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3241.424143276705</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5780,10 +5782,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5792,10 +5794,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>2985.713220456422</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>2816.777037528515</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>2666.660398116179</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F22" t="n">
-        <v>265.0731740618515</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>3167.361685286662</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>2757.723669558405</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E25" t="n">
-        <v>2757.723669558405</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F25" t="n">
-        <v>2610.833722060494</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>3659.984780604089</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>3905.661761784424</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1089.917939501689</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C28" t="n">
-        <v>920.9817565737817</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>770.8651171614459</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E28" t="n">
-        <v>622.9520235790528</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>4437.439036126372</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>4148.36380947057</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>3893.679321264683</v>
       </c>
       <c r="W28" t="n">
-        <v>1720.348534373476</v>
+        <v>3604.262151227723</v>
       </c>
       <c r="X28" t="n">
-        <v>1492.358983475458</v>
+        <v>3376.272600329705</v>
       </c>
       <c r="Y28" t="n">
-        <v>1271.566404331928</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>3839.850899059799</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>3195.262992109387</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>3026.32680918148</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2876.210169769145</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>1824.417283336614</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>3825.693586981174</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>3597.704036083157</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>3376.911456939627</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6788,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>677.474817503733</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>529.5617239213399</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6892,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>2977.325134535465</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>2808.388951607558</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>2658.272312195223</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>2658.272312195223</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>4151.8573876501</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>3897.172899444213</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>3607.755729407252</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>3379.766178509235</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>3158.973599365705</v>
       </c>
     </row>
     <row r="38">
@@ -7163,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7645,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883076197</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241558</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>162.0073097921331</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.352746708873</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.31058222398323</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>67.54000767002722</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.66916716481</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>8.661728554219422</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>213.946807929556</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.8014946027467</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>19.85228889678972</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>49.60187266209333</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>154.8900140445866</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>181.4067325814607</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.45968844823103</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>72.68610972170717</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>827141.2095144069</v>
+        <v>833083.1370154776</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26316,16 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
@@ -26332,28 +26334,28 @@
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.293728927</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805868</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707294</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="N4" t="n">
-        <v>6897.424496707356</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707387</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707387</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.9554491767</v>
+        <v>-723817.955449177</v>
       </c>
       <c r="C6" t="n">
-        <v>390933.828126743</v>
+        <v>390933.8281267429</v>
       </c>
       <c r="D6" t="n">
-        <v>229135.7871284224</v>
+        <v>390933.8281267434</v>
       </c>
       <c r="E6" t="n">
-        <v>171927.5336395348</v>
+        <v>-10145.44617765608</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468899</v>
+        <v>497339.9954468903</v>
       </c>
       <c r="G6" t="n">
+        <v>497339.9954468897</v>
+      </c>
+      <c r="H6" t="n">
+        <v>497339.9954468897</v>
+      </c>
+      <c r="I6" t="n">
+        <v>497339.9954468901</v>
+      </c>
+      <c r="J6" t="n">
+        <v>329734.8176369072</v>
+      </c>
+      <c r="K6" t="n">
+        <v>497339.99544689</v>
+      </c>
+      <c r="L6" t="n">
         <v>497339.9954468898</v>
       </c>
-      <c r="H6" t="n">
-        <v>497339.9954468898</v>
-      </c>
-      <c r="I6" t="n">
-        <v>497339.9954468898</v>
-      </c>
-      <c r="J6" t="n">
-        <v>329734.8176369071</v>
-      </c>
-      <c r="K6" t="n">
-        <v>497339.9954468897</v>
-      </c>
-      <c r="L6" t="n">
-        <v>449046.0254386993</v>
-      </c>
       <c r="M6" t="n">
-        <v>412284.9675113782</v>
+        <v>364732.7017179629</v>
       </c>
       <c r="N6" t="n">
         <v>497339.99544689</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.9954468898</v>
+        <v>497339.99544689</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468898</v>
+        <v>497339.9954468896</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>89.87581746731377</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>131.1673011786908</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>103.015434981651</v>
+        <v>167.5053351911031</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>58.91955964882621</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>59.73356815133337</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.66750420719401</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>253.4787300807555</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>104.3961369307872</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>300.0088554681539</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5.375823816579612</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>188.175388414528</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,13 +32083,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>211.7351844430274</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>637.8521160493917</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>379.5002789321567</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503477</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33506,10 +33508,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067504</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317924</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676406</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>411.6868389156654</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>73.18080466315317</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,13 +36366,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>499.2977362695175</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>248.1585668488234</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059032</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37154,10 +37156,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364378.642641668</v>
+        <v>2360241.485391517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>292.054552604948</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>208.456158947086</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>27.15712517063431</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6942204073858</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>171.0106825741647</v>
       </c>
       <c r="H5" t="n">
-        <v>242.0989929135792</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>163.8617208002643</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>33.04426825583553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>74.80352530458526</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>69.72224521031512</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.8709972820482</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.10799870228442</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>138.7157037776614</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>49.34762173749063</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>78.89395497654195</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5115415340516</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>3.458642397732228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6324680438225141</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5687591261415</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>95.81917536083792</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.17792077063414</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>144.7193406055811</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>156.3923706291105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1158.463096854644</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="C2" t="n">
-        <v>789.5005799142323</v>
+        <v>1097.433815842701</v>
       </c>
       <c r="D2" t="n">
-        <v>431.2348813074818</v>
+        <v>739.1681172359506</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>739.1681172359506</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>328.182212446343</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918766</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.062936918766</v>
+        <v>1852.996172847234</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.8411572468201</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="C4" t="n">
-        <v>451.9049743189132</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1609.0146805082</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1609.0146805082</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1319.896343012038</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1319.896343012038</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1030.479172975077</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>802.4896220770598</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="Y4" t="n">
-        <v>802.4896220770598</v>
+        <v>157.1019332386098</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1897.831592188879</v>
+        <v>1363.669246337129</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.869075248468</v>
+        <v>1363.669246337129</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.603376641717</v>
+        <v>1005.403547730379</v>
       </c>
       <c r="E5" t="n">
-        <v>784.8151240434729</v>
+        <v>1005.403547730379</v>
       </c>
       <c r="F5" t="n">
-        <v>777.8696232942694</v>
+        <v>594.4176429407714</v>
       </c>
       <c r="G5" t="n">
-        <v>362.1648730185583</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.831592188879</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.831592188879</v>
+        <v>1363.669246337129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145195</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>513.7702631754859</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>363.6536237631501</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>363.6536237631501</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>216.7636762652398</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1014.73757951051</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.73757951051</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>797.0848490996759</v>
+        <v>1324.80586733131</v>
       </c>
       <c r="C8" t="n">
-        <v>428.1223321592641</v>
+        <v>955.843350390898</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>597.5776517841475</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>211.7893991859033</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>204.8438984366998</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>193.1795522013928</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1573.824021139609</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1183.684689163798</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042427</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>808.4114230577909</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>990.0598878880306</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>990.0598878880306</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>990.0598878880306</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>817.189422194221</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>667.0727827818853</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>519.1596891994922</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>372.2697417015818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2239.800507329975</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2020.199042352916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1731.123815697113</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1476.439327491226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.022157454266</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3241.424143276705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2330.071297269541</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5782,22 +5782,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2816.777037528515</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2666.660398116179</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6129,19 +6129,19 @@
         <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300683</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4492432300683</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3659.984780604089</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499465</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.439036126372</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.36380947057</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3893.679321264683</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3604.262151227723</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3376.272600329705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329705</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3212.252935505192</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3839.850899059799</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.262992109387</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.32680918148</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.210169769145</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>4115.110757018135</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3825.693586981174</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3597.704036083157</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3376.911456939627</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6788,13 +6788,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>827.5914569160688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>677.474817503733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>529.5617239213399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2977.325134535465</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>2808.388951607558</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>2658.272312195223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>2658.272312195223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376194</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.932614305902</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.8573876501</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444213</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.755729407252</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>3379.766178509235</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>3158.973599365705</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2233.736227705813</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1944.661001050011</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1689.976512844124</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1400.559342807163</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1172.569791909146</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.777212765616</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>224.3355197601772</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>45.76488231024621</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.9531451156648</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>154.0169020165188</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8534,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.0073097921331</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.31058222398323</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>168.0578285897976</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>67.54000767002722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.01259675821728</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.8014946027467</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>19.85228889678972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>49.60187266209333</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.4067325814607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>72.68610972170717</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>10.85445046951733</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.293728927</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
-      </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
@@ -26450,10 +26450,10 @@
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707294</v>
+        <v>6897.424496707347</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.955449177</v>
+        <v>-723817.9554491763</v>
       </c>
       <c r="C6" t="n">
-        <v>390933.8281267429</v>
+        <v>390933.8281267432</v>
       </c>
       <c r="D6" t="n">
-        <v>390933.8281267434</v>
+        <v>390933.8281267433</v>
       </c>
       <c r="E6" t="n">
-        <v>-10145.44617765608</v>
+        <v>-10492.82543201319</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468903</v>
+        <v>496992.6161925328</v>
       </c>
       <c r="G6" t="n">
-        <v>497339.9954468897</v>
+        <v>496992.616192533</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468897</v>
+        <v>496992.6161925326</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468901</v>
+        <v>496992.6161925325</v>
       </c>
       <c r="J6" t="n">
-        <v>329734.8176369072</v>
+        <v>329387.4383825505</v>
       </c>
       <c r="K6" t="n">
-        <v>497339.99544689</v>
+        <v>496992.6161925325</v>
       </c>
       <c r="L6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.6161925328</v>
       </c>
       <c r="M6" t="n">
-        <v>364732.7017179629</v>
+        <v>364385.3224636064</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.99544689</v>
+        <v>496992.6161925325</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.99544689</v>
+        <v>496992.6161925326</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468896</v>
+        <v>496992.6161925333</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.87581746731377</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>203.0915438258679</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>167.5053351911031</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>240.5370201987892</v>
       </c>
       <c r="H5" t="n">
-        <v>58.91955964882621</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2.444879244539919</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>253.4787300807555</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>226.2150272578201</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>300.0088554681539</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5.375823816579612</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,19 +28067,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-4.839278073547424e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>624.1318526922785</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>173.3851399586643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5002789321567</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>338.6542681503477</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>316.3837382263848</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>528.7932908500036</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,31 +34447,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067504</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>591.2668520422178</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>295.4444114337784</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065822</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>520.9482342985593</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>411.6868389156654</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>481.5356082478341</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>31.25110603664601</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>248.1585668488234</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>196.0580237059032</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>182.4093308120545</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>386.6592569279853</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2360241.485391517</v>
+        <v>2362002.015694302</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>208.456158947086</v>
+        <v>331.9083743458816</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>122.6942204073858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>171.0106825741647</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>64.78910094740786</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8617208002643</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>29.03799297425366</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>74.80352530458526</v>
+        <v>150.7206830453289</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>116.8696022052337</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>87.2147151485249</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>11.56087338713368</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161909164</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.42721558712923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1466.396332783113</v>
+        <v>1591.095540256644</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.433815842701</v>
+        <v>1222.133023316232</v>
       </c>
       <c r="D2" t="n">
-        <v>739.1681172359506</v>
+        <v>863.8673247094814</v>
       </c>
       <c r="E2" t="n">
-        <v>739.1681172359506</v>
+        <v>863.8673247094814</v>
       </c>
       <c r="F2" t="n">
-        <v>328.182212446343</v>
+        <v>452.8814199198738</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,55 +4327,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114678</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386098</v>
+        <v>172.7955294637007</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1092.643294372449</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>803.2261243354878</v>
       </c>
       <c r="X4" t="n">
-        <v>157.1019332386098</v>
+        <v>575.2365734374705</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386098</v>
+        <v>354.4439942939404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.669246337129</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.669246337129</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.403547730379</v>
+        <v>1395.542879706191</v>
       </c>
       <c r="E5" t="n">
-        <v>1005.403547730379</v>
+        <v>1009.754627107946</v>
       </c>
       <c r="F5" t="n">
-        <v>594.4176429407714</v>
+        <v>598.7687223183389</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>183.0639720426277</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,7 +4567,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
@@ -4612,7 +4612,7 @@
         <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.669246337129</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,19 +4649,19 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.7064461033928</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="C7" t="n">
-        <v>513.7702631754859</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="D7" t="n">
-        <v>363.6536237631501</v>
+        <v>228.4911861849959</v>
       </c>
       <c r="E7" t="n">
-        <v>363.6536237631501</v>
+        <v>80.57809260260277</v>
       </c>
       <c r="F7" t="n">
-        <v>216.7636762652398</v>
+        <v>80.57809260260277</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>80.57809260260277</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>80.57809260260277</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X7" t="n">
-        <v>864.3549109336325</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.3549109336325</v>
+        <v>378.6078255973316</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.80586733131</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="C8" t="n">
-        <v>955.843350390898</v>
+        <v>1840.608156189629</v>
       </c>
       <c r="D8" t="n">
-        <v>597.5776517841475</v>
+        <v>1482.342457582879</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7893991859033</v>
+        <v>1096.554204984634</v>
       </c>
       <c r="F8" t="n">
-        <v>204.8438984366998</v>
+        <v>685.5683001950267</v>
       </c>
       <c r="G8" t="n">
-        <v>193.1795522013928</v>
+        <v>269.8635499193156</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395431</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1711.405707395431</v>
+        <v>2209.570673130041</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>158.5894986512065</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>343.3111199322564</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>638.0146769637281</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1001.276695922948</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
         <v>366.1231987576349</v>
@@ -4953,13 +4953,13 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1518.396016836887</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1518.396016836887</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1229.277679340725</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>974.5931911348382</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>685.1760210978775</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5372,7 +5372,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,10 +5983,10 @@
         <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>378.6527890600109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,16 +6837,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7323,10 +7323,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>45.76488231024621</v>
+        <v>265.030432851515</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>154.0169020165188</v>
+        <v>84.94186588374686</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>45.4467610113082</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-4.658055840560229e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>44.73700564187209</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.4949402405122</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>73.624177726021</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675048</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
@@ -26426,13 +26426,13 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707384</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707421</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
@@ -26441,19 +26441,19 @@
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707347</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.9554491763</v>
+        <v>-723817.955449177</v>
       </c>
       <c r="C6" t="n">
+        <v>390933.8281267433</v>
+      </c>
+      <c r="D6" t="n">
         <v>390933.8281267432</v>
       </c>
-      <c r="D6" t="n">
-        <v>390933.8281267433</v>
-      </c>
       <c r="E6" t="n">
-        <v>-10492.82543201319</v>
+        <v>-10180.18410309176</v>
       </c>
       <c r="F6" t="n">
-        <v>496992.6161925328</v>
+        <v>497305.2575214543</v>
       </c>
       <c r="G6" t="n">
-        <v>496992.616192533</v>
+        <v>497305.257521454</v>
       </c>
       <c r="H6" t="n">
-        <v>496992.6161925326</v>
+        <v>497305.2575214543</v>
       </c>
       <c r="I6" t="n">
-        <v>496992.6161925325</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="J6" t="n">
-        <v>329387.4383825505</v>
+        <v>329700.0797114715</v>
       </c>
       <c r="K6" t="n">
-        <v>496992.6161925325</v>
+        <v>497305.2575214544</v>
       </c>
       <c r="L6" t="n">
-        <v>496992.6161925328</v>
+        <v>497305.2575214545</v>
       </c>
       <c r="M6" t="n">
-        <v>364385.3224636064</v>
+        <v>364697.9637925279</v>
       </c>
       <c r="N6" t="n">
-        <v>496992.6161925325</v>
+        <v>497305.2575214544</v>
       </c>
       <c r="O6" t="n">
-        <v>496992.6161925326</v>
+        <v>497305.2575214539</v>
       </c>
       <c r="P6" t="n">
-        <v>496992.6161925333</v>
+        <v>497305.2575214539</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000394</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0915438258679</v>
+        <v>79.63932842707243</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188728</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>240.5370201987892</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.2294516149975</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>2.444879244539919</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>75.75860222964693</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>226.2150272578201</v>
+        <v>150.2978695170765</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>77.79285815650371</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-4.839278073547424e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>295.4444114337784</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>520.9482342985593</v>
+        <v>451.8731981657874</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>108.4269819022256</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>631.9617651335549</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096304</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35664,10 +35664,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
